--- a/desayuno.xlsx
+++ b/desayuno.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hernan\Desktop\Database nutricion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AD2743-8256-4D9A-BC01-33D72CEA4F03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C132DA-CC69-4DBC-93BE-BE366C4943C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F31FDD61-1F17-48B0-B4D2-D4DF5C991AD9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F31FDD61-1F17-48B0-B4D2-D4DF5C991AD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="131">
   <si>
     <t>tostadas con queso untable y mermelada</t>
   </si>
@@ -157,6 +157,273 @@
   </si>
   <si>
     <t>barras integrales caseras</t>
+  </si>
+  <si>
+    <t>sandwich de pasta de mani y mermelada</t>
+  </si>
+  <si>
+    <t>smoothie con avena instantanea, frutas y pasta de mani</t>
+  </si>
+  <si>
+    <t>Licuado de frutas con tostadas con jamón y queso</t>
+  </si>
+  <si>
+    <t>alm_carne</t>
+  </si>
+  <si>
+    <t>Pastel de papa hecho con calabaza</t>
+  </si>
+  <si>
+    <t>Ensalada de pollo desmenuzado con tomate, aceitunas negras y espinacas</t>
+  </si>
+  <si>
+    <t>Milanesas de pollo con zanahoria rallada y cebolla</t>
+  </si>
+  <si>
+    <t>Milanesas de carne con ensalada de tomate y cebolla</t>
+  </si>
+  <si>
+    <t>Milanesas de cerdo con ensalada de repollo</t>
+  </si>
+  <si>
+    <t>Milanesas de merluza con puré mixto</t>
+  </si>
+  <si>
+    <t>Carne al horno con morrones y trozos de calabaza con queso descremado</t>
+  </si>
+  <si>
+    <t>Albóngidas al horno con puré mixto</t>
+  </si>
+  <si>
+    <t>Filets de pechuga de pollo a la napolitana con ensalada de rúcula y cebolla</t>
+  </si>
+  <si>
+    <t>Ensalada de atún con tomate, lechuga, zanahoria y huevo</t>
+  </si>
+  <si>
+    <t>Tapa de asado a la parrilla con calabazas al rescoldo con queso</t>
+  </si>
+  <si>
+    <t>Pizza integral, con queso descremado, con rodajas de tomate y ajo</t>
+  </si>
+  <si>
+    <t>Pizza integral con acelga y salsa blanca light, con queso descremado</t>
+  </si>
+  <si>
+    <t>Ñoquis con salsa de tomate, sin queso de rallar</t>
+  </si>
+  <si>
+    <t>alm_sin_carne</t>
+  </si>
+  <si>
+    <t>Ensalada de arroz con huevo, palmitos, aceitunas, tomate y zanahoria rallada</t>
+  </si>
+  <si>
+    <t>Canelones de acelga con salsa de tomate</t>
+  </si>
+  <si>
+    <t>Lasaña de acelga con salsa de tomate</t>
+  </si>
+  <si>
+    <t>Ravioles de calabaza con salsa de tomate</t>
+  </si>
+  <si>
+    <t>Ensalada de pastas con tomates, queso descremado y albahaca</t>
+  </si>
+  <si>
+    <t>Ensalada de lentejas con rúcula, cebolla y tomate</t>
+  </si>
+  <si>
+    <t>Cazuela de lentejas con vegetales, repollo, calabaza, zanahorias, salsa de tomate</t>
+  </si>
+  <si>
+    <t>Cazuela de garbanzos y arroz integral con vegetales</t>
+  </si>
+  <si>
+    <t>Feijao con porotos negros, arroz blanco, cebolla, ajo y repollo</t>
+  </si>
+  <si>
+    <t>Sorrentinos de calabaza con salsa de tomate</t>
+  </si>
+  <si>
+    <t>Tarta de zapallitos, cebolla y queso descremado, con base solamente</t>
+  </si>
+  <si>
+    <t>Churrasquitos de cerdo con tomates grillados</t>
+  </si>
+  <si>
+    <t>Pastas salteadas con bastones de zanahoria, morrones, brocoli y salsa de soja</t>
+  </si>
+  <si>
+    <t>Ensalada de garbanzos con pepino, tomate, berro y aceitunas negras</t>
+  </si>
+  <si>
+    <t>Enstraña al vino tinto con ensalada de rúcula y cebolla</t>
+  </si>
+  <si>
+    <t>Churrascos de carne con ensalada de lechuga y tomate</t>
+  </si>
+  <si>
+    <t>Pollo a la parrilla con morrones rellenos con huevo y cebolla de verdeo</t>
+  </si>
+  <si>
+    <t>Solomillo de cerdo al horno con ensalada de repollo y cebollas</t>
+  </si>
+  <si>
+    <t>Costilla de cerdo con puré mixto</t>
+  </si>
+  <si>
+    <t>Milanesas de carne con ensalada de lechuga y pepino</t>
+  </si>
+  <si>
+    <t>Milanesas de merluza con pure de berenjenas y ajo</t>
+  </si>
+  <si>
+    <t>Milanesas de cerdo con ensalada capresse (tomate, queso y albahaca)</t>
+  </si>
+  <si>
+    <t>Pata-muslo de pollo a la cacerola con salsa de tomate, rodajas de zanahoria, zapallo y cebolla</t>
+  </si>
+  <si>
+    <t>Cazuela de arvejas (no hace falta remojar) con morrones, cebolla, espinacas, queso untable y un huevo a la plancha</t>
+  </si>
+  <si>
+    <t>Wok de zanahoria, brotes de soja, morrones con salsa de soja y jengibre y carne de cerdo</t>
+  </si>
+  <si>
+    <t>Merluza a la provenzal con ensalada de rúcula y cebolla</t>
+  </si>
+  <si>
+    <t>Pasta con salsa blanca light y espinacas, sin queso de rallar</t>
+  </si>
+  <si>
+    <t>Colita de cuadril al horno co ensalada de zanahoria y huevo</t>
+  </si>
+  <si>
+    <t>Churrasquito de cerdo con ensalada de remolacha rallada</t>
+  </si>
+  <si>
+    <t>alm_vegetariano</t>
+  </si>
+  <si>
+    <t>Seitan en churrascos al wok con vegetales (morrones, zucchini y bastones de zanahoria)</t>
+  </si>
+  <si>
+    <t>Falafel (croquetas de garbanzo) con puré de batata y ensalada de espinacas</t>
+  </si>
+  <si>
+    <t>Tofu grillado con arroz integral y ensalada de tomates</t>
+  </si>
+  <si>
+    <t>Ensalada de lentejas con palta, aceitunas, rúcula y zanahoria</t>
+  </si>
+  <si>
+    <t>Milanesas de soja caseras con hummus y revuelto de espinaca</t>
+  </si>
+  <si>
+    <t>Milanesas de berenjena con porción de arroz integral o quinoa y ensalada de lechuga y tomate</t>
+  </si>
+  <si>
+    <t>Ensalada de porotos alubia con tomate, rúcula, apio y mani</t>
+  </si>
+  <si>
+    <t>Chow fan con arroz integral, vegetales, salsa de soja y tofu en cubos</t>
+  </si>
+  <si>
+    <t>Cazuela de arroz integral y garbanzos con vegetales (zapallo, puerro, verdeo, zanahoria, tomate)</t>
+  </si>
+  <si>
+    <t>Seitan a la parrilla con baba ganush (pasta de berenjenas y ajo)</t>
+  </si>
+  <si>
+    <t>Ensalada de arroz integral o yamani con morrones, aceitunas verdes, zanahoria rallada y tomate</t>
+  </si>
+  <si>
+    <t>Hamburguesa de lentejas al plato con ensalada de zanahoria, berro y mani salado</t>
+  </si>
+  <si>
+    <t>Ñoquis con boloñesa de soja y salsa de tomate, sin queso de rallar</t>
+  </si>
+  <si>
+    <t>Ensalada de lentejas con tomate, granos de choclo, aceitunas verdes y chauchas</t>
+  </si>
+  <si>
+    <t>Polenta al horno, rellena de queso descremado, espinacas, morrones, cebolla, etc. con salsa de tomate</t>
+  </si>
+  <si>
+    <t>Ravioles de espinaca con salsa blanca light</t>
+  </si>
+  <si>
+    <t>Pizza con harina integral y harina de soja, con vegetales y queso descremado</t>
+  </si>
+  <si>
+    <t>Pastel de soja texturizada y huevo con papa, zanahoria, cebolla, morrón, etc.</t>
+  </si>
+  <si>
+    <t>Tarta de zapallitos y cebolla, con masa casera (incorporar semillas)</t>
+  </si>
+  <si>
+    <t>Milanesas de soja con ensalada de brotes verdes</t>
+  </si>
+  <si>
+    <t>Ensalada de arroz integral o yamani con zanahoria rallada, apio, pepino, trocitos de queso y maní, con salsa de soja</t>
+  </si>
+  <si>
+    <t>Croquetas de seitan con puré de berenjenas</t>
+  </si>
+  <si>
+    <t>Sopa de miso con vegetales (espinacas, cebolla de verdeo, ajo, puerro, papas, etc)</t>
+  </si>
+  <si>
+    <t>Milanesas de seitan a la napolitana con ensalada de rucula y tomate</t>
+  </si>
+  <si>
+    <t>Tarta (hecha con harina de legumbres) de zapallitos y cebolla</t>
+  </si>
+  <si>
+    <t>Fainá con rodajas de tomate, queso, espinacas, aceitunas y ajo</t>
+  </si>
+  <si>
+    <t>Albóndigas de soja texturizada con puré mixto</t>
+  </si>
+  <si>
+    <t>Pastas rellenas con salsa de tomate</t>
+  </si>
+  <si>
+    <t>Pan de carne con vegetales (zanahoria rallada, morrones, cebolla, etc. Con puré mixto</t>
+  </si>
+  <si>
+    <t>Cazuela de pollo con cebollas, verdeo, puerro y queso untable</t>
+  </si>
+  <si>
+    <t>Calabaza rellena con carne picada</t>
+  </si>
+  <si>
+    <t>Calabaza rellena con vegetales y arroz pilaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbonada (carne de vaca, calabaza, tomates, zanahoria, choclo, morrones), cocinar todo por 2hs y servir </t>
+  </si>
+  <si>
+    <t>Pizza hecha con masa integral con capa de cebollas rehogadas y queso descremado</t>
+  </si>
+  <si>
+    <t>Solomillo de cerdo a la mostaza con ensalada de remolacha rallada</t>
+  </si>
+  <si>
+    <t>Tomates rellenos con arroz, arvejas y aceitunas</t>
+  </si>
+  <si>
+    <t>Berenjenas rellenas con carne picada y ensalada de zanahoria rallada y cebolla</t>
+  </si>
+  <si>
+    <t>Ensalada de pastas fría con tomates cherry, aceitunas negras, ajo, albahaca y tofu en cubos</t>
+  </si>
+  <si>
+    <t>Pechuga de pollo rellena con jamón y queso con revuelto de acelga</t>
+  </si>
+  <si>
+    <t>Filets de pechuga de pollo con revuelto de espinacas, ajo y queso untable descremado</t>
   </si>
 </sst>
 </file>
@@ -172,12 +439,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -192,8 +465,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,21 +783,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17ED5031-AB2D-4460-82B0-C28A6B8F176C}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="43.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="90.33203125" customWidth="1"/>
+    <col min="7" max="7" width="76.33203125" customWidth="1"/>
+    <col min="8" max="8" width="55" customWidth="1"/>
+    <col min="9" max="10" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -538,8 +817,17 @@
       <c r="E1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -555,8 +843,17 @@
       <c r="E2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -572,8 +869,17 @@
       <c r="E3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -589,8 +895,17 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -606,8 +921,17 @@
       <c r="E5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -623,8 +947,17 @@
       <c r="E6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -640,8 +973,17 @@
       <c r="E7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -651,11 +993,21 @@
       <c r="C8" t="s">
         <v>11</v>
       </c>
+      <c r="D8" s="2"/>
       <c r="E8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -665,8 +1017,19 @@
       <c r="C9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -676,8 +1039,19 @@
       <c r="C10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -687,8 +1061,19 @@
       <c r="C11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -698,8 +1083,19 @@
       <c r="C12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -709,8 +1105,19 @@
       <c r="C13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -720,8 +1127,19 @@
       <c r="C14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -731,8 +1149,19 @@
       <c r="C15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -742,65 +1171,259 @@
       <c r="C16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
       <c r="C17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
       <c r="C18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
       <c r="C19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="C20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D26" s="1"/>
+      <c r="F26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
